--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>helt</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B13"/>
+  <dimension ref="A4:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,6 +1479,201 @@
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
